--- a/Docu/HEV_Simu_V1_1_Spec.xlsx
+++ b/Docu/HEV_Simu_V1_1_Spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OvView" sheetId="7" r:id="rId1"/>
@@ -18885,15 +18885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2635702</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>2662916</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18908,7 +18908,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="870856" y="1182461"/>
+          <a:off x="898070" y="951139"/>
           <a:ext cx="2445203" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -18968,15 +18968,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2635702</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>2662916</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>159203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>307523</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>78232</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1345071</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156463</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18989,18 +18989,16 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="3"/>
-          <a:endCxn id="42" idx="1"/>
+          <a:endCxn id="35" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3316059" y="1506311"/>
-          <a:ext cx="393250" cy="8260207"/>
+          <a:off x="3343273" y="1274989"/>
+          <a:ext cx="2192798" cy="187760"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -22073,7 +22071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -25533,8 +25531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27352,8 +27350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30372,7 +30370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
